--- a/Calculate Volume + Polar Filament/Volume + PF data.xlsx
+++ b/Calculate Volume + Polar Filament/Volume + PF data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe McUnt\Desktop\temp work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe McUnt\Desktop\temp work\Calculate Volume + Polar Filament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5867B06A-FB38-40C1-A20B-535356481D37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D8B2DB-8C2E-4213-97C0-200FCB203B69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="1200" windowWidth="17775" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12705" yWindow="2040" windowWidth="14775" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5605" uniqueCount="3071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5644" uniqueCount="3100">
   <si>
     <t>3.6 (fixed)</t>
   </si>
@@ -9438,6 +9438,93 @@
   </si>
   <si>
     <t>3.62 -+ 0.26 (c1, fresh); 7.00 -+ 0.56 (c2, fresh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cucumispora roeselii  </t>
+  </si>
+  <si>
+    <t>Oogranate pervascens</t>
+  </si>
+  <si>
+    <t>Janacekia tainanus</t>
+  </si>
+  <si>
+    <t>Cambaraspora floridanus</t>
+  </si>
+  <si>
+    <t>Glugea eda</t>
+  </si>
+  <si>
+    <t>Fusasporis stethaprioni</t>
+  </si>
+  <si>
+    <t>Nucleospora sp.</t>
+  </si>
+  <si>
+    <t>Agglomerata daphnia</t>
+  </si>
+  <si>
+    <t>Jirovecia sinensis</t>
+  </si>
+  <si>
+    <t>Alternosema bostrichidis</t>
+  </si>
+  <si>
+    <t>Nosema alticae</t>
+  </si>
+  <si>
+    <t>Amblyospora sp. 40</t>
+  </si>
+  <si>
+    <t>2.2 ± 0.1</t>
+  </si>
+  <si>
+    <t>6.14 ± 0.27</t>
+  </si>
+  <si>
+    <t>1.5 ± 0.1</t>
+  </si>
+  <si>
+    <t>3.71 ± 0.12</t>
+  </si>
+  <si>
+    <t>6.136</t>
+  </si>
+  <si>
+    <t>3.9 ± 0.33 (fixed)</t>
+  </si>
+  <si>
+    <t>4.48 ± 0.09 (fresh)</t>
+  </si>
+  <si>
+    <t>17.0 ± 0.1 (fresh)</t>
+  </si>
+  <si>
+    <t>3.95 (fresh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.27 ± 0.38 (fresh)</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.0 ± 0.2 (fixed)</t>
+  </si>
+  <si>
+    <t>2.40 ± 0.08 (fresh)</t>
+  </si>
+  <si>
+    <t>2.0 ± 0.2 (fresh)</t>
+  </si>
+  <si>
+    <t>2.61 ± 0.20 (fresh)</t>
+  </si>
+  <si>
+    <t>2 (all stages)</t>
+  </si>
+  <si>
+    <t>10 (c1, unclear if diff size PF spores are diff size); 5 (c2, unclear if diff size PF spores are diff size)</t>
   </si>
 </sst>
 </file>
@@ -9502,7 +9589,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9512,6 +9599,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9528,7 +9621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9562,6 +9655,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9960,9 +10069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1423" sqref="D1423"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1435" sqref="F1435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38545,7 +38654,7 @@
       <c r="G1427" s="2"/>
       <c r="H1427" s="2"/>
     </row>
-    <row r="1428" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1428" s="2" t="s">
         <v>2350</v>
       </c>
@@ -38594,162 +38703,336 @@
       <c r="H1429" s="2"/>
     </row>
     <row r="1430" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1430" s="9"/>
-      <c r="C1430" s="9"/>
-      <c r="D1430" s="9"/>
-      <c r="G1430" s="10"/>
+      <c r="A1430" s="17" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B1430" s="20" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C1430" s="20" t="s">
+        <v>3085</v>
+      </c>
+      <c r="D1430" s="20" t="s">
+        <v>3085</v>
+      </c>
+      <c r="E1430" s="20">
+        <v>9.5</v>
+      </c>
+      <c r="F1430" s="20">
+        <v>9.5</v>
+      </c>
+      <c r="G1430" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="1431" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1431" s="9"/>
-      <c r="C1431" s="9"/>
-      <c r="D1431" s="9"/>
-      <c r="G1431" s="10"/>
+      <c r="A1431" s="17" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B1431" s="20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C1431" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="D1431" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="E1431" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="F1431" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="G1431" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="1432" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1432" s="9"/>
-      <c r="C1432" s="9"/>
-      <c r="D1432" s="9"/>
-      <c r="G1432" s="10"/>
+      <c r="A1432" s="17" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B1432" s="20" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C1432" s="20" t="s">
+        <v>3086</v>
+      </c>
+      <c r="D1432" s="20" t="s">
+        <v>3086</v>
+      </c>
+      <c r="E1432" s="20">
+        <v>15</v>
+      </c>
+      <c r="F1432" s="20">
+        <v>15</v>
+      </c>
+      <c r="G1432" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="1433" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1433" s="9"/>
-      <c r="C1433" s="9"/>
-      <c r="D1433" s="9"/>
-      <c r="G1433" s="10"/>
+      <c r="A1433" s="18" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B1433" s="21" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C1433" s="21" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D1433" s="21" t="s">
+        <v>3093</v>
+      </c>
+      <c r="E1433" s="22">
+        <v>20</v>
+      </c>
+      <c r="F1433" s="22">
+        <v>20</v>
+      </c>
+      <c r="G1433" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="1434" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1434" s="9"/>
-      <c r="C1434" s="9"/>
-      <c r="D1434" s="9"/>
-      <c r="G1434" s="10"/>
+      <c r="A1434" s="18" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B1434" s="22">
+        <v>5</v>
+      </c>
+      <c r="C1434" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1434" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E1434" s="22">
+        <v>26</v>
+      </c>
+      <c r="F1434" s="22">
+        <v>26</v>
+      </c>
+      <c r="G1434" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="1435" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1435" s="9"/>
-      <c r="C1435" s="9"/>
-      <c r="D1435" s="9"/>
-      <c r="G1435" s="10"/>
+      <c r="A1435" s="19" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>3094</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>3099</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>3099</v>
+      </c>
+      <c r="G1435">
+        <v>1</v>
+      </c>
     </row>
     <row r="1436" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1436" s="9"/>
-      <c r="C1436" s="9"/>
-      <c r="D1436" s="9"/>
-      <c r="G1436" s="10"/>
+      <c r="A1436" s="19" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B1436"/>
+      <c r="C1436"/>
+      <c r="D1436"/>
+      <c r="E1436"/>
+      <c r="F1436"/>
+      <c r="G1436"/>
     </row>
     <row r="1437" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1437" s="9"/>
-      <c r="C1437" s="9"/>
-      <c r="D1437" s="9"/>
-      <c r="G1437" s="10"/>
+      <c r="A1437" s="19" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>3095</v>
+      </c>
+      <c r="E1437">
+        <v>7</v>
+      </c>
+      <c r="F1437">
+        <v>7</v>
+      </c>
+      <c r="G1437">
+        <v>1</v>
+      </c>
     </row>
     <row r="1438" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1438" s="9"/>
-      <c r="C1438" s="9"/>
-      <c r="D1438" s="9"/>
-      <c r="G1438" s="10"/>
+      <c r="A1438" s="19" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>3096</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E1438"/>
+      <c r="F1438"/>
+      <c r="G1438" t="s">
+        <v>3098</v>
+      </c>
     </row>
     <row r="1439" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1439" s="9"/>
-      <c r="C1439" s="9"/>
-      <c r="D1439" s="9"/>
-      <c r="G1439" s="10"/>
+      <c r="A1439" s="19" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1439">
+        <v>14</v>
+      </c>
+      <c r="F1439">
+        <v>14</v>
+      </c>
+      <c r="G1439">
+        <v>2</v>
+      </c>
     </row>
     <row r="1440" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1440" s="9"/>
-      <c r="C1440" s="9"/>
-      <c r="D1440" s="9"/>
-      <c r="G1440" s="10"/>
-    </row>
-    <row r="1441" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="A1440" s="19" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1440">
+        <v>13</v>
+      </c>
+      <c r="F1440">
+        <v>13</v>
+      </c>
+      <c r="G1440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1441" s="19" t="s">
+        <v>3082</v>
+      </c>
       <c r="B1441" s="9"/>
       <c r="C1441" s="9"/>
       <c r="D1441" s="9"/>
-      <c r="G1441" s="10"/>
-    </row>
-    <row r="1442" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G1441"/>
+    </row>
+    <row r="1442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1442" s="9"/>
       <c r="C1442" s="9"/>
       <c r="D1442" s="9"/>
       <c r="G1442" s="10"/>
     </row>
-    <row r="1443" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1443" s="9"/>
       <c r="C1443" s="9"/>
       <c r="D1443" s="9"/>
       <c r="G1443" s="10"/>
     </row>
-    <row r="1444" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1444" s="9"/>
       <c r="C1444" s="9"/>
       <c r="D1444" s="9"/>
       <c r="G1444" s="10"/>
     </row>
-    <row r="1445" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1445" s="9"/>
       <c r="C1445" s="9"/>
       <c r="D1445" s="9"/>
       <c r="G1445" s="10"/>
     </row>
-    <row r="1446" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1446" s="9"/>
       <c r="C1446" s="9"/>
       <c r="D1446" s="9"/>
       <c r="G1446" s="10"/>
     </row>
-    <row r="1447" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1447" s="9"/>
       <c r="C1447" s="9"/>
       <c r="D1447" s="9"/>
       <c r="G1447" s="10"/>
     </row>
-    <row r="1448" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1448" s="9"/>
       <c r="C1448" s="9"/>
       <c r="D1448" s="9"/>
       <c r="G1448" s="10"/>
     </row>
-    <row r="1449" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1449" s="9"/>
       <c r="C1449" s="9"/>
       <c r="D1449" s="9"/>
       <c r="G1449" s="10"/>
     </row>
-    <row r="1450" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1450" s="9"/>
       <c r="C1450" s="9"/>
       <c r="D1450" s="9"/>
       <c r="G1450" s="10"/>
     </row>
-    <row r="1451" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1451" s="9"/>
       <c r="C1451" s="9"/>
       <c r="D1451" s="9"/>
       <c r="G1451" s="10"/>
     </row>
-    <row r="1452" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1452" s="9"/>
       <c r="C1452" s="9"/>
       <c r="D1452" s="9"/>
       <c r="G1452" s="10"/>
     </row>
-    <row r="1453" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1453" s="9"/>
       <c r="C1453" s="9"/>
       <c r="D1453" s="9"/>
       <c r="G1453" s="10"/>
     </row>
-    <row r="1454" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1454" s="9"/>
       <c r="C1454" s="9"/>
       <c r="D1454" s="9"/>
       <c r="G1454" s="10"/>
     </row>
-    <row r="1455" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1455" s="9"/>
       <c r="C1455" s="9"/>
       <c r="D1455" s="9"/>
       <c r="G1455" s="10"/>
     </row>
-    <row r="1456" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1456" s="9"/>
       <c r="C1456" s="9"/>
       <c r="D1456" s="9"/>
